--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Rankings/estadisticos_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Rankings/estadisticos_Lineal_Estacionario_ARMA.xlsx
@@ -58,16 +58,16 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>EnCQR-LSTM</t>
+  </si>
+  <si>
     <t>Block Bootstrapping</t>
   </si>
   <si>
     <t>AREPD</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
   </si>
 </sst>
 </file>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5464135857990908</v>
+        <v>0.5486678588830807</v>
       </c>
       <c r="C2">
-        <v>0.4854797482505147</v>
+        <v>0.4804107494529839</v>
       </c>
       <c r="D2">
-        <v>0.2758831989549063</v>
+        <v>0.2753418996277534</v>
       </c>
       <c r="E2">
-        <v>0.5048981323395296</v>
+        <v>0.5018371227143958</v>
       </c>
       <c r="F2">
-        <v>0.2137332699735824</v>
+        <v>0.2083816572502668</v>
       </c>
       <c r="G2">
-        <v>1.149948372659041</v>
+        <v>1.318334285231016</v>
       </c>
       <c r="H2">
-        <v>0.3155457534719288</v>
+        <v>0.3380399674257</v>
       </c>
       <c r="I2">
-        <v>0.7318386186768863</v>
+        <v>0.8145315601741159</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.574004851152303</v>
+        <v>0.5797743837610607</v>
       </c>
       <c r="C3">
-        <v>0.535749294147799</v>
+        <v>0.523423099299231</v>
       </c>
       <c r="D3">
-        <v>0.2879518157108044</v>
+        <v>0.3354061939934684</v>
       </c>
       <c r="E3">
-        <v>0.5016539758030737</v>
+        <v>0.5785115786207234</v>
       </c>
       <c r="F3">
-        <v>0.2196514158305501</v>
+        <v>0.2179420237506586</v>
       </c>
       <c r="G3">
-        <v>1.408367616186029</v>
+        <v>5.260344452913852</v>
       </c>
       <c r="H3">
-        <v>0.3614579107910571</v>
+        <v>0.3527008680083392</v>
       </c>
       <c r="I3">
-        <v>0.8724942386338337</v>
+        <v>0.8640994195944398</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.6985225186644016</v>
+        <v>0.7246483305922792</v>
       </c>
       <c r="C4">
-        <v>0.600173557026046</v>
+        <v>0.604658926980391</v>
       </c>
       <c r="D4">
-        <v>0.3896322823002564</v>
+        <v>0.4787682030760981</v>
       </c>
       <c r="E4">
-        <v>0.557794876885639</v>
+        <v>0.6606904105951433</v>
       </c>
       <c r="F4">
-        <v>0.2223198475372553</v>
+        <v>0.2191379994519403</v>
       </c>
       <c r="G4">
-        <v>3.83699889435722</v>
+        <v>5.977575344683753</v>
       </c>
       <c r="H4">
-        <v>0.4127037332378982</v>
+        <v>0.4126657205843641</v>
       </c>
       <c r="I4">
-        <v>0.9971703862140542</v>
+        <v>0.9943863845814932</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.7059666671819314</v>
+        <v>0.7441800230032644</v>
       </c>
       <c r="C5">
-        <v>0.6075122397949806</v>
+        <v>0.6111508901820124</v>
       </c>
       <c r="D5">
-        <v>0.3895782366765292</v>
+        <v>0.5234597465204557</v>
       </c>
       <c r="E5">
-        <v>0.5518365877409519</v>
+        <v>0.7034047278075879</v>
       </c>
       <c r="F5">
-        <v>0.2205535735395071</v>
+        <v>0.2306358993265505</v>
       </c>
       <c r="G5">
-        <v>2.603497152436368</v>
+        <v>6.40313636373426</v>
       </c>
       <c r="H5">
-        <v>0.4077918870107721</v>
+        <v>0.4174182315228845</v>
       </c>
       <c r="I5">
-        <v>1.005507949196396</v>
+        <v>1.015329429964716</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.7196613918393555</v>
+        <v>0.7625433183372602</v>
       </c>
       <c r="C6">
-        <v>0.5663078424588015</v>
+        <v>0.592010977007688</v>
       </c>
       <c r="D6">
-        <v>0.4710505688935704</v>
+        <v>0.5674536023218704</v>
       </c>
       <c r="E6">
-        <v>0.6545447264992638</v>
+        <v>0.7441591692904915</v>
       </c>
       <c r="F6">
-        <v>0.2178225796640376</v>
+        <v>0.212975968116504</v>
       </c>
       <c r="G6">
-        <v>3.17011250193005</v>
+        <v>10.84766181955932</v>
       </c>
       <c r="H6">
-        <v>0.3974598522075324</v>
+        <v>0.4049299593755917</v>
       </c>
       <c r="I6">
-        <v>0.9945052522993146</v>
+        <v>1.001460067469879</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.9559532634470479</v>
+        <v>0.7760342464003689</v>
       </c>
       <c r="C7">
-        <v>0.7427412441241663</v>
+        <v>0.600576776929493</v>
       </c>
       <c r="D7">
-        <v>0.7761439234030374</v>
+        <v>0.5798842008745582</v>
       </c>
       <c r="E7">
-        <v>0.8119057207926248</v>
+        <v>0.7472404775489589</v>
       </c>
       <c r="F7">
-        <v>0.2210725715982343</v>
+        <v>0.2164845213224377</v>
       </c>
       <c r="G7">
-        <v>5.189994766729314</v>
+        <v>10.97425415706785</v>
       </c>
       <c r="H7">
-        <v>0.4176552726528907</v>
+        <v>0.4094062032437492</v>
       </c>
       <c r="I7">
-        <v>1.15751171270627</v>
+        <v>1.009297657318013</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.9604152130268676</v>
+        <v>0.8550688176140749</v>
       </c>
       <c r="C8">
-        <v>0.6921671393749174</v>
+        <v>0.6229387605612257</v>
       </c>
       <c r="D8">
-        <v>0.8093958569236493</v>
+        <v>0.7285727506562555</v>
       </c>
       <c r="E8">
-        <v>0.8427561808113576</v>
+        <v>0.8520632908696339</v>
       </c>
       <c r="F8">
-        <v>0.2229034025267394</v>
+        <v>0.2165879452164768</v>
       </c>
       <c r="G8">
-        <v>5.884498479068899</v>
+        <v>8.531277189506381</v>
       </c>
       <c r="H8">
-        <v>0.4334358516448348</v>
+        <v>0.4135590405777525</v>
       </c>
       <c r="I8">
-        <v>1.155918004022819</v>
+        <v>1.076496936718693</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.076995155575413</v>
+        <v>0.8942725799144582</v>
       </c>
       <c r="C9">
-        <v>0.6228081686086003</v>
+        <v>0.6387495722699705</v>
       </c>
       <c r="D9">
-        <v>1.208070373782898</v>
+        <v>0.8140923676946195</v>
       </c>
       <c r="E9">
-        <v>1.121704556913679</v>
+        <v>0.9103402988968885</v>
       </c>
       <c r="F9">
-        <v>0.2181262272533705</v>
+        <v>0.2191604604864717</v>
       </c>
       <c r="G9">
-        <v>7.747853984839615</v>
+        <v>11.03554126892367</v>
       </c>
       <c r="H9">
-        <v>0.4204097199679213</v>
+        <v>0.4249586494201641</v>
       </c>
       <c r="I9">
-        <v>1.171599001025582</v>
+        <v>1.068527292682621</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1.15301740025674</v>
+        <v>0.9275089090905068</v>
       </c>
       <c r="C10">
-        <v>0.9148123983488536</v>
+        <v>0.6720657900114902</v>
       </c>
       <c r="D10">
-        <v>0.7440789753973343</v>
+        <v>0.9089211638264633</v>
       </c>
       <c r="E10">
-        <v>0.6453319570300081</v>
+        <v>0.9799594967963486</v>
       </c>
       <c r="F10">
-        <v>0.3204545981376693</v>
+        <v>0.2175285734600527</v>
       </c>
       <c r="G10">
-        <v>3.767866183422353</v>
+        <v>12.88338891091027</v>
       </c>
       <c r="H10">
-        <v>0.5926241124035532</v>
+        <v>0.4308209280599213</v>
       </c>
       <c r="I10">
-        <v>1.442616383353865</v>
+        <v>1.113145930421437</v>
       </c>
     </row>
   </sheetData>
